--- a/test1/RoleAttributes.xlsx
+++ b/test1/RoleAttributes.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>__default__</t>
   </si>
@@ -27,6 +27,15 @@
   </si>
   <si>
     <t>__name__</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
   <si>
     <t>Lv.1001</t>
@@ -79,8 +88,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -105,29 +114,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,86 +152,62 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,17 +222,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -258,187 +267,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,6 +466,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,15 +550,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -554,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -572,127 +581,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,6 +722,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1037,7 +1049,7 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="14.5" outlineLevelRow="4"/>
@@ -1083,14 +1095,14 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>3</v>
+      <c r="B3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1098,13 +1110,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1112,13 +1124,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1183,28 +1195,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" spans="1:9">
@@ -1212,28 +1224,28 @@
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" s="1" customFormat="1" spans="1:9">

--- a/test1/RoleAttributes.xlsx
+++ b/test1/RoleAttributes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="6900"/>
+    <workbookView windowWidth="19200" windowHeight="6900" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RoleAttributes" sheetId="1" r:id="rId1"/>
@@ -88,10 +88,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ \￥* #,##0_ ;_ \￥* \-#,##0_ ;_ \￥* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ \￥* #,##0.00_ ;_ \￥* \-#,##0.00_ ;_ \￥* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -114,31 +114,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,8 +130,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -168,23 +153,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,8 +177,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -207,52 +245,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,31 +267,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,151 +435,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -473,8 +473,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -489,6 +489,30 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -526,30 +550,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -563,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -581,130 +581,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -796,7 +796,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="E0FFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1048,7 +1048,7 @@
   <sheetPr/>
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -1144,8 +1144,8 @@
   <sheetPr/>
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.6363636363636" defaultRowHeight="14.5"/>
@@ -1259,7 +1259,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E4" s="1">
         <v>10</v>
@@ -1288,7 +1288,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1">
         <v>20</v>
@@ -1317,7 +1317,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E6" s="1">
         <v>10</v>
@@ -1346,7 +1346,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E7" s="1">
         <v>10</v>
@@ -1375,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1">
         <v>20</v>
@@ -1404,7 +1404,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="E9" s="1">
         <v>10</v>
